--- a/tables/wosis_dist.xlsx
+++ b/tables/wosis_dist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\GSNmap-TM\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9D6026-4A49-4E7A-84FB-9118BF2AD2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CFC2DB-BBD1-43F2-B9D6-D949D9E9C02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E5CE5D4-E61E-4003-B0BA-76BF8ADFE858}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E5CE5D4-E61E-4003-B0BA-76BF8ADFE858}"/>
   </bookViews>
   <sheets>
     <sheet name="wosis_dist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Soil property</t>
   </si>
@@ -83,12 +83,6 @@
     <t>cmol(c)/kg</t>
   </si>
   <si>
-    <t>pH water</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Clay</t>
   </si>
   <si>
@@ -101,20 +95,62 @@
     <t>Sand</t>
   </si>
   <si>
-    <t>SOC</t>
-  </si>
-  <si>
     <t>Bulk density</t>
   </si>
   <si>
     <t>g/cm3</t>
+  </si>
+  <si>
+    <t>ph_0_30</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Available K</t>
+  </si>
+  <si>
+    <t>k_0_30</t>
+  </si>
+  <si>
+    <t>Soil Organic Carbon</t>
+  </si>
+  <si>
+    <t>soc_0_30</t>
+  </si>
+  <si>
+    <t>bd_0_30</t>
+  </si>
+  <si>
+    <t>cec_0_30</t>
+  </si>
+  <si>
+    <t>p_0_30</t>
+  </si>
+  <si>
+    <t>n_0_30</t>
+  </si>
+  <si>
+    <t>clay_0_30</t>
+  </si>
+  <si>
+    <t>sand_0_30</t>
+  </si>
+  <si>
+    <t>silt_0_30</t>
+  </si>
+  <si>
+    <t>pH (water)</t>
+  </si>
+  <si>
+    <t>property_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +168,12 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -185,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,337 +545,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7AE13B-0E6B-4A5F-9B72-3965909B5724}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" thickBot="1">
+    <row r="1" spans="1:12" ht="27.6" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="3">
         <v>400</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="3">
         <v>700</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>1500</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>84000</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>216362</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.2" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>1.6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>150</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>40486</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="46.5" thickBot="1">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="46.2" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="E4" s="3">
         <v>1.6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>6.1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>22</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>149.4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>7242</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.2" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="E5" s="3">
         <v>0.7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>4.3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>141</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>8434</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="27.6" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3">
+        <v>140</v>
+      </c>
+      <c r="I6" s="3">
+        <v>295688</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.6" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>613322</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="29.4" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>21.9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>590368</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
+        <v>47.6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>558233</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="29.4" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>482334</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="40.799999999999997" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G11" s="3">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>471301</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="27.6" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>116756</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="27.6" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3">
-        <v>140</v>
-      </c>
-      <c r="G6" s="3">
-        <v>295688</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="31.5" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>613322</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>21.9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>590368</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
-        <v>47.6</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>558233</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3">
-        <v>60.2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>482334</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E11" s="3">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3">
-        <v>99.4</v>
-      </c>
-      <c r="G11" s="3">
-        <v>471301</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="31.5" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>116756</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
